--- a/biology/Zoologie/Ctenophora_pectinicornis/Ctenophora_pectinicornis.xlsx
+++ b/biology/Zoologie/Ctenophora_pectinicornis/Ctenophora_pectinicornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenophora pectinicornis est une espèce d'insectes diptères nématocères de la famille des tipulidés, de la sous-famille des tipulinés ou des cténophorinés selon les classifications.
 Comme les tipules, il s'agit d'une espèce totalement inoffensive (ne mord pas, ne pique pas).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ailes longues de 15 mm, aux nervures bien marquées, petite tache (pterostigma) foncée près du bord distal.
 Fémurs de la 3e paire de pattes dépourvus d'anneau foncé (contrairement à Ctenophora festiva).
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque toute l'Europe, depuis l'Espagne jusqu'à la Norvège, la Russie.
 </t>
